--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_SwapsFromBasis.xlsx
@@ -17,9 +17,6 @@
     <sheet name="6M (2)" sheetId="22" r:id="rId8"/>
     <sheet name="1Y (2)" sheetId="23" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!$D$16</definedName>
     <definedName name="Calendar">'General Settings'!$D$20</definedName>
@@ -50,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="82">
   <si>
     <t>Currency</t>
   </si>
@@ -294,6 +291,9 @@
   <si>
     <t>Discounting</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -307,7 +307,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -810,22 +810,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1120,7 +1104,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="13" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="13" customWidth="1"/>
@@ -1131,13 +1115,13 @@
     <col min="7" max="16384" width="8" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="15"/>
       <c r="B2" s="62" t="s">
         <v>44</v>
@@ -1146,14 +1130,14 @@
       <c r="D2" s="63"/>
       <c r="E2" s="64"/>
     </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="15"/>
       <c r="B3" s="24"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
       <c r="E3" s="25"/>
     </row>
-    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="15"/>
       <c r="B4" s="24"/>
       <c r="C4" s="34" t="s">
@@ -1162,7 +1146,7 @@
       <c r="D4" s="35"/>
       <c r="E4" s="26"/>
     </row>
-    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="15"/>
       <c r="B5" s="24"/>
       <c r="C5" s="34" t="s">
@@ -1173,7 +1157,7 @@
       </c>
       <c r="E5" s="26"/>
     </row>
-    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="15"/>
       <c r="B6" s="24"/>
       <c r="C6" s="34" t="s">
@@ -1184,7 +1168,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="15"/>
       <c r="B7" s="24"/>
       <c r="C7" s="34" t="s">
@@ -1195,19 +1179,18 @@
       </c>
       <c r="E7" s="26"/>
     </row>
-    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="24"/>
       <c r="C8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="36" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="36" t="s">
+        <v>81</v>
       </c>
       <c r="E8" s="26"/>
     </row>
-    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="10" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="15"/>
       <c r="B9" s="24"/>
       <c r="C9" s="34" t="s">
@@ -1218,15 +1201,15 @@
       </c>
       <c r="E9" s="26"/>
     </row>
-    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="10" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="62" t="s">
         <v>56</v>
       </c>
@@ -1237,13 +1220,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="30"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="31"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="30"/>
       <c r="C14" s="38" t="s">
         <v>0</v>
@@ -1256,7 +1239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="30"/>
       <c r="C15" s="38" t="s">
         <v>59</v>
@@ -1267,7 +1250,7 @@
       </c>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="30"/>
       <c r="C16" s="38" t="s">
         <v>60</v>
@@ -1277,7 +1260,7 @@
       </c>
       <c r="E16" s="31"/>
     </row>
-    <row r="17" spans="2:5" ht="12.75">
+    <row r="17" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="30"/>
       <c r="C17" s="38" t="s">
         <v>61</v>
@@ -1287,7 +1270,7 @@
       </c>
       <c r="E17" s="31"/>
     </row>
-    <row r="18" spans="2:5" ht="12.75">
+    <row r="18" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B18" s="30"/>
       <c r="C18" s="38" t="s">
         <v>80</v>
@@ -1298,7 +1281,7 @@
       </c>
       <c r="E18" s="31"/>
     </row>
-    <row r="19" spans="2:5" ht="12.75">
+    <row r="19" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
       <c r="C19" s="38" t="s">
         <v>79</v>
@@ -1309,7 +1292,7 @@
       </c>
       <c r="E19" s="31"/>
     </row>
-    <row r="20" spans="2:5" ht="12.75">
+    <row r="20" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B20" s="30"/>
       <c r="C20" s="38" t="s">
         <v>1</v>
@@ -1319,7 +1302,7 @@
       </c>
       <c r="E20" s="31"/>
     </row>
-    <row r="21" spans="2:5" ht="12.75">
+    <row r="21" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B21" s="30"/>
       <c r="C21" s="38" t="s">
         <v>50</v>
@@ -1329,7 +1312,7 @@
       </c>
       <c r="E21" s="31"/>
     </row>
-    <row r="22" spans="2:5" ht="13.5" thickBot="1">
+    <row r="22" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
@@ -1370,7 +1353,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -1392,7 +1375,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1408,7 +1391,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1434,7 +1417,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -1461,17 +1444,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC1MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1496,7 +1479,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1512,7 +1495,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -1561,7 +1544,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f>B6</f>
@@ -1620,7 +1603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" ref="B8:B39" si="5">B7</f>
@@ -1679,7 +1662,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1738,7 +1721,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1797,7 +1780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1856,7 +1839,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1909,7 +1892,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="5"/>
@@ -1959,7 +1942,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2009,7 +1992,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2059,7 +2042,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2109,7 +2092,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2159,7 +2142,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2209,7 +2192,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2259,7 +2242,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2309,7 +2292,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2359,7 +2342,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2409,7 +2392,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2459,7 +2442,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2509,7 +2492,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2559,7 +2542,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2609,7 +2592,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2659,7 +2642,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2709,7 +2692,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2759,7 +2742,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2809,7 +2792,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2859,7 +2842,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2909,7 +2892,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -2959,7 +2942,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3009,7 +2992,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3059,7 +3042,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3109,7 +3092,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3159,7 +3142,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3209,7 +3192,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3259,7 +3242,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -3297,7 +3280,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -3319,7 +3302,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -3335,7 +3318,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3361,7 +3344,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -3388,17 +3371,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC3MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3423,7 +3406,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3439,7 +3422,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -3488,7 +3471,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f>B6</f>
@@ -3547,7 +3530,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" ref="B8:B39" si="5">B7</f>
@@ -3606,7 +3589,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3665,7 +3648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3724,7 +3707,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3783,7 +3766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3836,7 +3819,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3886,7 +3869,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3936,7 +3919,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="5"/>
@@ -3986,7 +3969,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4036,7 +4019,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4086,7 +4069,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4136,7 +4119,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4186,7 +4169,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4236,7 +4219,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4286,7 +4269,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4336,7 +4319,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4386,7 +4369,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4436,7 +4419,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4486,7 +4469,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4536,7 +4519,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4586,7 +4569,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4636,7 +4619,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4686,7 +4669,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4736,7 +4719,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4786,7 +4769,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4836,7 +4819,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4886,7 +4869,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4936,7 +4919,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -4986,7 +4969,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5036,7 +5019,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5086,7 +5069,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5136,7 +5119,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="5"/>
@@ -5186,7 +5169,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -5224,7 +5207,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -5246,7 +5229,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -5262,7 +5245,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5288,7 +5271,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -5315,17 +5298,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC6MRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5350,7 +5333,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5366,7 +5349,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -5403,7 +5386,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f>B6</f>
@@ -5450,7 +5433,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" ref="B8:B39" si="2">B7</f>
@@ -5497,7 +5480,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5544,7 +5527,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5591,7 +5574,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5638,7 +5621,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5679,7 +5662,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5717,7 +5700,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5755,7 +5738,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5793,7 +5776,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5831,7 +5814,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5869,7 +5852,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5907,7 +5890,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5945,7 +5928,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -5983,7 +5966,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6021,7 +6004,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6059,7 +6042,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6097,7 +6080,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6135,7 +6118,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6173,7 +6156,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6211,7 +6194,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6249,7 +6232,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6287,7 +6270,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6325,7 +6308,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6363,7 +6346,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6401,7 +6384,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6439,7 +6422,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6477,7 +6460,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6515,7 +6498,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6553,7 +6536,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6591,7 +6574,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6629,7 +6612,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6667,7 +6650,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="2"/>
@@ -6705,7 +6688,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -6742,7 +6725,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -6764,7 +6747,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -6780,7 +6763,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6806,7 +6789,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -6833,17 +6816,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC1YRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>34</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6868,7 +6851,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6884,7 +6867,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -6929,7 +6912,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f>B6</f>
@@ -6987,7 +6970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" ref="B8:B39" si="4">B7</f>
@@ -7045,7 +7028,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7103,7 +7086,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7161,7 +7144,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7219,7 +7202,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7271,7 +7254,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7320,7 +7303,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7369,7 +7352,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7418,7 +7401,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7467,7 +7450,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7516,7 +7499,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7565,7 +7548,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7614,7 +7597,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7663,7 +7646,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7712,7 +7695,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7761,7 +7744,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7810,7 +7793,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7859,7 +7842,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7908,7 +7891,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -7957,7 +7940,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8006,7 +7989,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8055,7 +8038,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8104,7 +8087,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8153,7 +8136,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8202,7 +8185,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8251,7 +8234,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8300,7 +8283,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8349,7 +8332,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8398,7 +8381,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8447,7 +8430,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8496,7 +8479,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8545,7 +8528,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -8594,7 +8577,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -8632,7 +8615,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -8654,7 +8637,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -8670,7 +8653,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -8696,7 +8679,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -8723,17 +8706,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -8758,7 +8741,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -8774,7 +8757,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -8823,7 +8806,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B39" si="5">B6</f>
@@ -8882,7 +8865,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="5"/>
@@ -8941,7 +8924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9000,7 +8983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9059,7 +9042,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9118,7 +9101,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9171,7 +9154,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9221,7 +9204,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9271,7 +9254,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9321,7 +9304,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9371,7 +9354,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9421,7 +9404,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9471,7 +9454,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9521,7 +9504,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9571,7 +9554,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9621,7 +9604,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9671,7 +9654,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9721,7 +9704,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9771,7 +9754,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9821,7 +9804,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9871,7 +9854,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9921,7 +9904,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="5"/>
@@ -9971,7 +9954,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10021,7 +10004,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10071,7 +10054,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10121,7 +10104,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10171,7 +10154,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10221,7 +10204,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10271,7 +10254,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10321,7 +10304,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10371,7 +10354,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10421,7 +10404,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10471,7 +10454,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10521,7 +10504,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -10559,7 +10542,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -10581,7 +10564,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -10597,7 +10580,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -10623,7 +10606,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -10650,17 +10633,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>35</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -10685,7 +10668,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -10701,7 +10684,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -10750,7 +10733,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B39" si="5">B6</f>
@@ -10809,7 +10792,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10868,7 +10851,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10927,7 +10910,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="5"/>
@@ -10986,7 +10969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11045,7 +11028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11098,7 +11081,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11148,7 +11131,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11198,7 +11181,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11248,7 +11231,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11298,7 +11281,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11348,7 +11331,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11398,7 +11381,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11448,7 +11431,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11498,7 +11481,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11548,7 +11531,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11598,7 +11581,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11648,7 +11631,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11698,7 +11681,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11748,7 +11731,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11798,7 +11781,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11848,7 +11831,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11898,7 +11881,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11948,7 +11931,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="5"/>
@@ -11998,7 +11981,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12048,7 +12031,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12098,7 +12081,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12148,7 +12131,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12198,7 +12181,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12248,7 +12231,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12298,7 +12281,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12348,7 +12331,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12398,7 +12381,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="5"/>
@@ -12448,7 +12431,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -12486,7 +12469,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -12508,7 +12491,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -12524,7 +12507,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -12550,7 +12533,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -12577,17 +12560,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -12612,7 +12595,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -12628,7 +12611,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -12665,7 +12648,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B39" si="2">B6</f>
@@ -12712,7 +12695,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12759,7 +12742,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12806,7 +12789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12853,7 +12836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12900,7 +12883,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12941,7 +12924,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="2"/>
@@ -12979,7 +12962,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13017,7 +13000,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13055,7 +13038,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13093,7 +13076,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13131,7 +13114,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13169,7 +13152,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13207,7 +13190,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13245,7 +13228,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13283,7 +13266,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13321,7 +13304,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13359,7 +13342,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13397,7 +13380,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13435,7 +13418,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13473,7 +13456,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13511,7 +13494,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13549,7 +13532,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13587,7 +13570,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13625,7 +13608,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13663,7 +13646,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13701,7 +13684,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13739,7 +13722,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13777,7 +13760,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13815,7 +13798,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13853,7 +13836,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13891,7 +13874,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13929,7 +13912,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="2"/>
@@ -13967,7 +13950,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -14004,7 +13987,7 @@
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="4.7109375" style="45" bestFit="1" customWidth="1"/>
@@ -14026,7 +14009,7 @@
     <col min="19" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="17"/>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -14042,7 +14025,7 @@
       <c r="M1" s="18"/>
       <c r="N1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -14068,7 +14051,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="46"/>
     </row>
-    <row r="3" spans="1:18" ht="22.5">
+    <row r="3" spans="1:18" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="40" t="s">
         <v>57</v>
@@ -14095,17 +14078,17 @@
         <f>K2&amp;"_SwapsFromBasis.xml"</f>
         <v>GBP_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
-      <c r="L3" s="42">
+      <c r="L3" s="42" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>34</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" s="43" t="str">
-        <f>_xll.ohRangeRetrieveError(L3)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
         <v/>
       </c>
       <c r="N3" s="46"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -14130,7 +14113,7 @@
       </c>
       <c r="N4" s="46"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -14146,7 +14129,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="46"/>
     </row>
-    <row r="6" spans="1:18" ht="12" thickBot="1">
+    <row r="6" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="61" t="s">
         <v>77</v>
@@ -14191,7 +14174,7 @@
       </c>
       <c r="N6" s="46"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="7" t="str">
         <f t="shared" ref="B7:B39" si="4">B6</f>
@@ -14249,7 +14232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14307,7 +14290,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14365,7 +14348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14423,7 +14406,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="12" thickBot="1">
+    <row r="11" spans="1:18" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14481,7 +14464,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14533,7 +14516,7 @@
       <c r="Q12" s="52"/>
       <c r="R12" s="52"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14582,7 +14565,7 @@
       </c>
       <c r="N13" s="46"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14631,7 +14614,7 @@
       </c>
       <c r="N14" s="46"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14680,7 +14663,7 @@
       </c>
       <c r="N15" s="46"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14729,7 +14712,7 @@
       </c>
       <c r="N16" s="46"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14778,7 +14761,7 @@
       </c>
       <c r="N17" s="46"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14827,7 +14810,7 @@
       </c>
       <c r="N18" s="46"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14876,7 +14859,7 @@
       </c>
       <c r="N19" s="46"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14925,7 +14908,7 @@
       </c>
       <c r="N20" s="46"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="7" t="str">
         <f t="shared" si="4"/>
@@ -14974,7 +14957,7 @@
       </c>
       <c r="N21" s="46"/>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15023,7 +15006,7 @@
       </c>
       <c r="N22" s="46"/>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15072,7 +15055,7 @@
       </c>
       <c r="N23" s="46"/>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15121,7 +15104,7 @@
       </c>
       <c r="N24" s="46"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15170,7 +15153,7 @@
       </c>
       <c r="N25" s="46"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15219,7 +15202,7 @@
       </c>
       <c r="N26" s="46"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15268,7 +15251,7 @@
       </c>
       <c r="N27" s="46"/>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15317,7 +15300,7 @@
       </c>
       <c r="N28" s="46"/>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15366,7 +15349,7 @@
       </c>
       <c r="N29" s="46"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15415,7 +15398,7 @@
       </c>
       <c r="N30" s="46"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15464,7 +15447,7 @@
       </c>
       <c r="N31" s="46"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15513,7 +15496,7 @@
       </c>
       <c r="N32" s="46"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15562,7 +15545,7 @@
       </c>
       <c r="N33" s="46"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15611,7 +15594,7 @@
       </c>
       <c r="N34" s="46"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15660,7 +15643,7 @@
       </c>
       <c r="N35" s="46"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15709,7 +15692,7 @@
       </c>
       <c r="N36" s="46"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15758,7 +15741,7 @@
       </c>
       <c r="N37" s="46"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15807,7 +15790,7 @@
       </c>
       <c r="N38" s="46"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="7" t="str">
         <f t="shared" si="4"/>
@@ -15856,7 +15839,7 @@
       </c>
       <c r="N39" s="46"/>
     </row>
-    <row r="40" spans="1:14" ht="12" thickBot="1">
+    <row r="40" spans="1:14" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_SwapsFromBasis.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/GBP_YCRH_SwapsFromBasis.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="81">
   <si>
     <t>Currency</t>
   </si>
@@ -290,9 +290,6 @@
   </si>
   <si>
     <t>Discounting</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1182,9 @@
       <c r="C8" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>81</v>
+      <c r="D8" s="36" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="26"/>
     </row>
@@ -1445,12 +1443,12 @@
         <v>GBP_YC1MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -3372,12 +3370,12 @@
         <v>GBP_YC3MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -5299,12 +5297,12 @@
         <v>GBP_YC6MRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -6817,12 +6815,12 @@
         <v>GBP_YC1YRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -8707,12 +8705,12 @@
         <v>GBP_YC1M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -10634,12 +10632,12 @@
         <v>GBP_YC3M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -12561,12 +12559,12 @@
         <v>GBP_YC6M-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
@@ -14079,12 +14077,12 @@
         <v>GBP_YC1Y-MxRH_SwapsFromBasis.xml</v>
       </c>
       <c r="L3" s="42" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M3" s="43" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(L4:L39,SerializationPath&amp;K3,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M3" s="43" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(L3)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="N3" s="46"/>
     </row>
